--- a/HybridFramework/src/test/resources/testcases/Testcases.xlsx
+++ b/HybridFramework/src/test/resources/testcases/Testcases.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,6 +27,9 @@
     <t>Keyword</t>
   </si>
   <si>
+    <t>Object</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -42,33 +45,30 @@
     <t>click</t>
   </si>
   <si>
+    <t>createPortfolio_id</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>createPortfolio_id</t>
-  </si>
-  <si>
     <t>porfolioname_id</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>portfolioname</t>
+  </si>
+  <si>
+    <t>createPortfolioButton_css</t>
+  </si>
+  <si>
     <t>waitForPageToLoad</t>
   </si>
   <si>
     <t>validateSelectedValueInDropDown</t>
   </si>
   <si>
-    <t>portfolioname</t>
-  </si>
-  <si>
-    <t>createPortfolioButton_css</t>
-  </si>
-  <si>
     <t>portfolioid_dropdown_id</t>
   </si>
   <si>
@@ -78,27 +78,30 @@
     <t>selectByVisibleText</t>
   </si>
   <si>
+    <t>deletePortfolio_id</t>
+  </si>
+  <si>
     <t>acceptAlert</t>
   </si>
   <si>
-    <t>deletePortfolio_id</t>
-  </si>
-  <si>
     <t>validateSelectedValueNotInDropDown</t>
   </si>
   <si>
     <t>SelectPortFolio</t>
   </si>
   <si>
+    <t>AddNewStock</t>
+  </si>
+  <si>
     <t>findCurrentStockQuantity</t>
   </si>
   <si>
-    <t>AddNewStock</t>
-  </si>
-  <si>
     <t>stockname</t>
   </si>
   <si>
+    <t>quantityBeforeModification</t>
+  </si>
+  <si>
     <t>addStock_id</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>wait</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>clickEnterButton</t>
   </si>
   <si>
@@ -123,21 +129,18 @@
     <t>addstockqty_id</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>addstockprice_id</t>
   </si>
   <si>
-    <t>quantity</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>addStockButton_id</t>
   </si>
   <si>
-    <t>quantityBeforeModification</t>
-  </si>
-  <si>
     <t>VerifyStockPresent</t>
   </si>
   <si>
@@ -147,34 +150,37 @@
     <t>VerifyStockQuantity</t>
   </si>
   <si>
+    <t>findModifiedQuantity</t>
+  </si>
+  <si>
     <t>expectedModifiedQuantity</t>
   </si>
   <si>
-    <t>1</t>
+    <t>verifyStockModification</t>
+  </si>
+  <si>
+    <t>expectedModifiedQuantity,quantity</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>findModifiedQuantity</t>
-  </si>
-  <si>
-    <t>expectedModifiedQuantity,quantity</t>
-  </si>
-  <si>
-    <t>verifyStockModification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,11 +188,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,24 +358,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -228,36 +571,330 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -540,28 +1177,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="36.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="45.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="25.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="18.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -575,28 +1212,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -604,11 +1241,11 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -619,7 +1256,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -629,21 +1266,21 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -651,11 +1288,11 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -664,17 +1301,17 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -691,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -702,7 +1339,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -715,10 +1352,10 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -730,7 +1367,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -749,7 +1386,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -766,7 +1403,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -777,7 +1414,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -786,31 +1423,31 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -818,14 +1455,14 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>26</v>
@@ -835,29 +1472,29 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -865,14 +1502,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -880,63 +1517,63 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -944,11 +1581,11 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -957,11 +1594,11 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -972,26 +1609,26 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>47</v>
@@ -999,7 +1636,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1112,30 +1749,39 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>